--- a/medicine/Premiers secours et secourisme/Kit_de_survie/Kit_de_survie.xlsx
+++ b/medicine/Premiers secours et secourisme/Kit_de_survie/Kit_de_survie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un kit de survie est un paquet contenant un ensemble d'outils et de fournitures préparé et accessible pour aider à la survie en cas de situations d'isolement ou d'urgence. Le kit peut être de tailles et de compositions variées suivant le risque encouru et la charge possible.
 </t>
@@ -511,7 +523,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contenu d'un kit de survie peut s'adapter à l'environnement, mais il est généralement conçu afin de :
 fournir un abri sommaire ;
@@ -548,7 +562,9 @@
           <t>Utilisateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les avions militaires, canots de sauvetage, et vaisseaux spatiaux sont équipés de kits de survie.
 Des civils tels que les travailleurs forestiers, les arpenteurs, ou les pilotes de brousse, qui travaillent dans des endroits éloignés ou dans des régions aux conditions climatiques extrêmes peuvent également être équipés de kit de survie.
@@ -587,17 +603,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Abri ou nécessaire de conservation de la chaleur
-Une couverture de survie, afin de conserver la chaleur corporelle et permettre de se signaler.
+          <t>Abri ou nécessaire de conservation de la chaleur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une couverture de survie, afin de conserver la chaleur corporelle et permettre de se signaler.
 Un poncho léger, pour la protection contre le vent et la pluie.
 Une « tente en tube » ou une tente « sur sac », imperméabilisant un sac de couchage.
-Une bâche agricole avec des œillets ou des rubans d'attache, ou simplement un grand sac poubelle.
-Allumage de feu
-Un briquet, des allumettes imperméables, ou un « firesteel » (marque déposée).
+Une bâche agricole avec des œillets ou des rubans d'attache, ou simplement un grand sac poubelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kit_de_survie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kit_de_survie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allumage de feu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un briquet, des allumettes imperméables, ou un « firesteel » (marque déposée).
 Des boules de coton ou des tampons de coton enduits de pétrole blanc pour le départ du feu (ou lampant ou CLAMC : « carburant liquide pour appareils mobiles de chauffage »). Elles peuvent être transportées dans un conteneur ou transportées scellées à l'intérieur d'une paille en plastique de grand diamètre.
-De l'amadou, du bois gras, etc.
-Signalisation de sa présence
-Un sifflet.
+De l'amadou, du bois gras, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kit_de_survie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kit_de_survie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Signalisation de sa présence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un sifflet.
 Un miroir de signalisation.
 Une lampe clignotante.</t>
         </is>
